--- a/prediction.xlsx
+++ b/prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\CODE\CSGO_HLTV-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DAAF4-9BF1-475C-823F-628AF3D88DBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F45E7-4128-462D-914E-CAD683F7DEFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{21B6BC58-136C-43BF-B95B-2B68E638464E}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,12 +404,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>GEOMEAN(0.98,0.93,1.02,1,0.92)</f>
-        <v>0.96921338831182569</v>
+        <f>GEOMEAN(1.09,0.96,1.2,1.05,1.45)</f>
+        <v>1.1383799962449093</v>
       </c>
       <c r="B2">
-        <f>GEOMEAN(1.02,1.04,1.17,1.01,0.92)</f>
-        <v>1.0289297272384883</v>
+        <f>GEOMEAN(1.08,1.06,0.95,0.98,0.96)</f>
+        <v>1.0045929058142535</v>
       </c>
     </row>
   </sheetData>
